--- a/Code/Results/Cases/Case_2_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9955539374973819</v>
+        <v>1.024354954476961</v>
       </c>
       <c r="D2">
-        <v>1.017700142089164</v>
+        <v>1.034299980542307</v>
       </c>
       <c r="E2">
-        <v>1.016949226931888</v>
+        <v>1.04515910461195</v>
       </c>
       <c r="F2">
-        <v>1.022727322475245</v>
+        <v>1.048352702062955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042044168757214</v>
+        <v>1.031118593597669</v>
       </c>
       <c r="J2">
-        <v>1.017868447642802</v>
+        <v>1.029530034393715</v>
       </c>
       <c r="K2">
-        <v>1.028918272638678</v>
+        <v>1.037099851446981</v>
       </c>
       <c r="L2">
-        <v>1.028177376170464</v>
+        <v>1.04792812813185</v>
       </c>
       <c r="M2">
-        <v>1.033878855700081</v>
+        <v>1.051112785467323</v>
       </c>
       <c r="N2">
-        <v>1.009915208708829</v>
+        <v>1.013886138705523</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9993841013988254</v>
+        <v>1.025173632948521</v>
       </c>
       <c r="D3">
-        <v>1.020496352557824</v>
+        <v>1.034920959601419</v>
       </c>
       <c r="E3">
-        <v>1.020639291090214</v>
+        <v>1.046030302594381</v>
       </c>
       <c r="F3">
-        <v>1.026328780169557</v>
+        <v>1.049189424180054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042760414627846</v>
+        <v>1.031212782043853</v>
       </c>
       <c r="J3">
-        <v>1.019891570524476</v>
+        <v>1.029988260586713</v>
       </c>
       <c r="K3">
-        <v>1.030873527171195</v>
+        <v>1.037530491278758</v>
       </c>
       <c r="L3">
-        <v>1.031014727265516</v>
+        <v>1.048610554271379</v>
       </c>
       <c r="M3">
-        <v>1.036635507916384</v>
+        <v>1.05176147184657</v>
       </c>
       <c r="N3">
-        <v>1.010595514652822</v>
+        <v>1.014039099334389</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001817494113947</v>
+        <v>1.025704014984549</v>
       </c>
       <c r="D4">
-        <v>1.022275180200582</v>
+        <v>1.035323173521545</v>
       </c>
       <c r="E4">
-        <v>1.0229921153601</v>
+        <v>1.046595396636453</v>
       </c>
       <c r="F4">
-        <v>1.028623106562893</v>
+        <v>1.049731912699386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04320502589748</v>
+        <v>1.031272492485597</v>
       </c>
       <c r="J4">
-        <v>1.021174822193706</v>
+        <v>1.030284753492766</v>
       </c>
       <c r="K4">
-        <v>1.032111996010402</v>
+        <v>1.037808851050103</v>
       </c>
       <c r="L4">
-        <v>1.03282074471508</v>
+        <v>1.049052858689809</v>
       </c>
       <c r="M4">
-        <v>1.038387926279129</v>
+        <v>1.052181639708323</v>
       </c>
       <c r="N4">
-        <v>1.011026877958223</v>
+        <v>1.014138033652294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002830052798448</v>
+        <v>1.025927139693643</v>
       </c>
       <c r="D5">
-        <v>1.023015879453202</v>
+        <v>1.035492357895878</v>
       </c>
       <c r="E5">
-        <v>1.023973146324487</v>
+        <v>1.046833288365657</v>
       </c>
       <c r="F5">
-        <v>1.029579261252398</v>
+        <v>1.049960229832595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043387490279321</v>
+        <v>1.031297298232057</v>
       </c>
       <c r="J5">
-        <v>1.021708268624447</v>
+        <v>1.030409395430429</v>
       </c>
       <c r="K5">
-        <v>1.032626396442017</v>
+        <v>1.03792580197897</v>
       </c>
       <c r="L5">
-        <v>1.033573027361124</v>
+        <v>1.049238976359636</v>
       </c>
       <c r="M5">
-        <v>1.039117341848905</v>
+        <v>1.052358378191698</v>
       </c>
       <c r="N5">
-        <v>1.011206157160452</v>
+        <v>1.014179615256172</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002999462967423</v>
+        <v>1.025964612184827</v>
       </c>
       <c r="D6">
-        <v>1.023139833807059</v>
+        <v>1.035520770133695</v>
       </c>
       <c r="E6">
-        <v>1.024137398262545</v>
+        <v>1.046873250505178</v>
       </c>
       <c r="F6">
-        <v>1.029739319563988</v>
+        <v>1.049998580176574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043417867639097</v>
+        <v>1.031301445818168</v>
       </c>
       <c r="J6">
-        <v>1.021797487247856</v>
+        <v>1.030430323107585</v>
       </c>
       <c r="K6">
-        <v>1.032712403970165</v>
+        <v>1.037945434320626</v>
       </c>
       <c r="L6">
-        <v>1.033698936049243</v>
+        <v>1.049270236425901</v>
       </c>
       <c r="M6">
-        <v>1.039239391371562</v>
+        <v>1.052388059170704</v>
       </c>
       <c r="N6">
-        <v>1.011236139206115</v>
+        <v>1.014186596368068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001831064567434</v>
+        <v>1.025706995792271</v>
       </c>
       <c r="D7">
-        <v>1.0222851051977</v>
+        <v>1.035325433805836</v>
       </c>
       <c r="E7">
-        <v>1.023005255422625</v>
+        <v>1.046598574078114</v>
       </c>
       <c r="F7">
-        <v>1.028635915349208</v>
+        <v>1.049734962484797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043207481401073</v>
+        <v>1.031272825107171</v>
       </c>
       <c r="J7">
-        <v>1.021181973634262</v>
+        <v>1.030286418980488</v>
       </c>
       <c r="K7">
-        <v>1.03211889383398</v>
+        <v>1.037810414036888</v>
       </c>
       <c r="L7">
-        <v>1.032830823868302</v>
+        <v>1.049055344925945</v>
       </c>
       <c r="M7">
-        <v>1.038397701198119</v>
+        <v>1.052184000906113</v>
       </c>
       <c r="N7">
-        <v>1.011029281547944</v>
+        <v>1.014138589309103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968578749452146</v>
+        <v>1.024631496696591</v>
       </c>
       <c r="D8">
-        <v>1.018651564262372</v>
+        <v>1.034509759597418</v>
       </c>
       <c r="E8">
-        <v>1.018203684599502</v>
+        <v>1.045453245063989</v>
       </c>
       <c r="F8">
-        <v>1.023952072941245</v>
+        <v>1.048635252768388</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042290168192868</v>
+        <v>1.031150680494862</v>
       </c>
       <c r="J8">
-        <v>1.018557617855872</v>
+        <v>1.029684895407124</v>
       </c>
       <c r="K8">
-        <v>1.029584678878014</v>
+        <v>1.03724544803454</v>
       </c>
       <c r="L8">
-        <v>1.029142594331165</v>
+        <v>1.048158605289455</v>
       </c>
       <c r="M8">
-        <v>1.034817085375108</v>
+        <v>1.051331923177349</v>
       </c>
       <c r="N8">
-        <v>1.010146982744579</v>
+        <v>1.013937840767668</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9877345067691983</v>
+        <v>1.022741323306148</v>
       </c>
       <c r="D9">
-        <v>1.012006520366996</v>
+        <v>1.033075575313782</v>
       </c>
       <c r="E9">
-        <v>1.00946338513395</v>
+        <v>1.043445613288895</v>
       </c>
       <c r="F9">
-        <v>1.015410550755243</v>
+        <v>1.046705733086719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040526459452835</v>
+        <v>1.030926011328064</v>
       </c>
       <c r="J9">
-        <v>1.013727952176348</v>
+        <v>1.02862491279935</v>
       </c>
       <c r="K9">
-        <v>1.024907757962994</v>
+        <v>1.036247722545937</v>
       </c>
       <c r="L9">
-        <v>1.022404768970272</v>
+        <v>1.046584092297971</v>
       </c>
       <c r="M9">
-        <v>1.028258454295614</v>
+        <v>1.049833778380763</v>
       </c>
       <c r="N9">
-        <v>1.008522178506317</v>
+        <v>1.0135837992977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9813874379535052</v>
+        <v>1.021484664675099</v>
       </c>
       <c r="D10">
-        <v>1.007400935191026</v>
+        <v>1.032121673549663</v>
       </c>
       <c r="E10">
-        <v>1.00343103759746</v>
+        <v>1.042114425088594</v>
       </c>
       <c r="F10">
-        <v>1.00950522260122</v>
+        <v>1.045425093128876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039247287034728</v>
+        <v>1.030769928774608</v>
       </c>
       <c r="J10">
-        <v>1.010359488328036</v>
+        <v>1.027918318985536</v>
       </c>
       <c r="K10">
-        <v>1.021637836939271</v>
+        <v>1.035581186398157</v>
       </c>
       <c r="L10">
-        <v>1.017738618702032</v>
+        <v>1.045538318851237</v>
       </c>
       <c r="M10">
-        <v>1.023704952230033</v>
+        <v>1.048837351521994</v>
       </c>
       <c r="N10">
-        <v>1.007388358887457</v>
+        <v>1.013347599648114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9785708351242506</v>
+        <v>1.020941358537198</v>
       </c>
       <c r="D11">
-        <v>1.00536202155622</v>
+        <v>1.031709173926484</v>
       </c>
       <c r="E11">
-        <v>1.000766037040349</v>
+        <v>1.041539746157683</v>
       </c>
       <c r="F11">
-        <v>1.006893994189796</v>
+        <v>1.044871940721017</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038667834310619</v>
+        <v>1.030700856784136</v>
       </c>
       <c r="J11">
-        <v>1.008863087716549</v>
+        <v>1.027612386529076</v>
       </c>
       <c r="K11">
-        <v>1.020183521519268</v>
+        <v>1.035292257516906</v>
       </c>
       <c r="L11">
-        <v>1.015673521469617</v>
+        <v>1.045086433715589</v>
       </c>
       <c r="M11">
-        <v>1.021687060516146</v>
+        <v>1.048406463140642</v>
       </c>
       <c r="N11">
-        <v>1.006884562729699</v>
+        <v>1.013245287622943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9775138706097088</v>
+        <v>1.020739677633024</v>
       </c>
       <c r="D12">
-        <v>1.004597695822492</v>
+        <v>1.031556037161253</v>
       </c>
       <c r="E12">
-        <v>0.9997678025967789</v>
+        <v>1.041326547388613</v>
       </c>
       <c r="F12">
-        <v>1.005915555182646</v>
+        <v>1.044666683643327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038448664409035</v>
+        <v>1.030674977602737</v>
       </c>
       <c r="J12">
-        <v>1.008301342090844</v>
+        <v>1.027498754981441</v>
       </c>
       <c r="K12">
-        <v>1.019637338174292</v>
+        <v>1.035184890635362</v>
       </c>
       <c r="L12">
-        <v>1.01489945249478</v>
+        <v>1.044918726619992</v>
       </c>
       <c r="M12">
-        <v>1.020930293308865</v>
+        <v>1.048246499523178</v>
       </c>
       <c r="N12">
-        <v>1.006695424831434</v>
+        <v>1.013207279439251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9777410879389554</v>
+        <v>1.020782933089061</v>
       </c>
       <c r="D13">
-        <v>1.004761966791169</v>
+        <v>1.031588881687159</v>
       </c>
       <c r="E13">
-        <v>0.9999823107431438</v>
+        <v>1.041372267334056</v>
       </c>
       <c r="F13">
-        <v>1.006125825084669</v>
+        <v>1.044710702521709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038495856765502</v>
+        <v>1.03068053884501</v>
       </c>
       <c r="J13">
-        <v>1.008422110007002</v>
+        <v>1.027523129069718</v>
       </c>
       <c r="K13">
-        <v>1.01975477079878</v>
+        <v>1.035207923247472</v>
       </c>
       <c r="L13">
-        <v>1.015065814608176</v>
+        <v>1.044954693855701</v>
       </c>
       <c r="M13">
-        <v>1.021092954594153</v>
+        <v>1.048280808274342</v>
       </c>
       <c r="N13">
-        <v>1.00673608757483</v>
+        <v>1.013215432539788</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9784836884249666</v>
+        <v>1.020924684926428</v>
       </c>
       <c r="D14">
-        <v>1.005298986217921</v>
+        <v>1.031696513869876</v>
       </c>
       <c r="E14">
-        <v>1.000683694956095</v>
+        <v>1.041522117712893</v>
       </c>
       <c r="F14">
-        <v>1.006813291993536</v>
+        <v>1.044854969844663</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038649798506578</v>
+        <v>1.030698722143474</v>
       </c>
       <c r="J14">
-        <v>1.00881677571593</v>
+        <v>1.027602993592565</v>
       </c>
       <c r="K14">
-        <v>1.0201384972232</v>
+        <v>1.035283383463854</v>
       </c>
       <c r="L14">
-        <v>1.0156096812504</v>
+        <v>1.04507256806448</v>
       </c>
       <c r="M14">
-        <v>1.021624655187156</v>
+        <v>1.048393238702928</v>
       </c>
       <c r="N14">
-        <v>1.006868969898887</v>
+        <v>1.013242145952729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9789397889543799</v>
+        <v>1.021012039815695</v>
       </c>
       <c r="D15">
-        <v>1.005628927981378</v>
+        <v>1.031762840792746</v>
       </c>
       <c r="E15">
-        <v>1.001114724826184</v>
+        <v>1.041614480330575</v>
       </c>
       <c r="F15">
-        <v>1.0072357235755</v>
+        <v>1.044943885374407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038744122688802</v>
+        <v>1.030709895974776</v>
       </c>
       <c r="J15">
-        <v>1.009059151224673</v>
+        <v>1.027652201513318</v>
       </c>
       <c r="K15">
-        <v>1.020374123949853</v>
+        <v>1.035329870962368</v>
       </c>
       <c r="L15">
-        <v>1.015943838760904</v>
+        <v>1.045145213275991</v>
       </c>
       <c r="M15">
-        <v>1.021951286100513</v>
+        <v>1.048462522448459</v>
       </c>
       <c r="N15">
-        <v>1.006950574985237</v>
+        <v>1.013258604327245</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.981572886477758</v>
+        <v>1.021520739857637</v>
       </c>
       <c r="D16">
-        <v>1.007535287255791</v>
+        <v>1.032149061460737</v>
       </c>
       <c r="E16">
-        <v>1.003606757357501</v>
+        <v>1.042152601348597</v>
       </c>
       <c r="F16">
-        <v>1.009677348363134</v>
+        <v>1.045461833138531</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039285196857759</v>
+        <v>1.030774481578273</v>
       </c>
       <c r="J16">
-        <v>1.010457982920299</v>
+        <v>1.027938623400367</v>
       </c>
       <c r="K16">
-        <v>1.021733527651888</v>
+        <v>1.035600355152881</v>
       </c>
       <c r="L16">
-        <v>1.017874707364325</v>
+        <v>1.045568328963468</v>
       </c>
       <c r="M16">
-        <v>1.023837875214264</v>
+        <v>1.048865960342645</v>
       </c>
       <c r="N16">
-        <v>1.007421517184644</v>
+        <v>1.013354389041471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9832059384455358</v>
+        <v>1.021840058787985</v>
       </c>
       <c r="D17">
-        <v>1.008718950613274</v>
+        <v>1.032391475047773</v>
       </c>
       <c r="E17">
-        <v>1.005155505167398</v>
+        <v>1.042490616196693</v>
       </c>
       <c r="F17">
-        <v>1.011194152510835</v>
+        <v>1.045787097168474</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039617689312483</v>
+        <v>1.030814596723084</v>
       </c>
       <c r="J17">
-        <v>1.011325144512153</v>
+        <v>1.028118296504954</v>
       </c>
       <c r="K17">
-        <v>1.022575812799998</v>
+        <v>1.035769939568712</v>
       </c>
       <c r="L17">
-        <v>1.019073739534863</v>
+        <v>1.045833991559101</v>
       </c>
       <c r="M17">
-        <v>1.025008713789255</v>
+        <v>1.049119180370513</v>
       </c>
       <c r="N17">
-        <v>1.007713435728463</v>
+        <v>1.013414462950416</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9841519168903949</v>
+        <v>1.022026392602818</v>
       </c>
       <c r="D18">
-        <v>1.009405071056726</v>
+        <v>1.032532923357968</v>
       </c>
       <c r="E18">
-        <v>1.006053780888515</v>
+        <v>1.042687941743224</v>
       </c>
       <c r="F18">
-        <v>1.012073677088466</v>
+        <v>1.045976950524786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039809166811563</v>
+        <v>1.030837851668821</v>
       </c>
       <c r="J18">
-        <v>1.011827311150823</v>
+        <v>1.028223099337761</v>
       </c>
       <c r="K18">
-        <v>1.023063411772058</v>
+        <v>1.035868824867513</v>
       </c>
       <c r="L18">
-        <v>1.019768830016182</v>
+        <v>1.045989038800472</v>
       </c>
       <c r="M18">
-        <v>1.025687207507959</v>
+        <v>1.049266934308616</v>
       </c>
       <c r="N18">
-        <v>1.007882472886589</v>
+        <v>1.013449499538458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9844733741069309</v>
+        <v>1.022089941218832</v>
       </c>
       <c r="D19">
-        <v>1.009638300692412</v>
+        <v>1.032581162434356</v>
       </c>
       <c r="E19">
-        <v>1.006359218751504</v>
+        <v>1.042755252954934</v>
       </c>
       <c r="F19">
-        <v>1.012372700924529</v>
+        <v>1.046041707999451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0398740412678</v>
+        <v>1.030845756637233</v>
       </c>
       <c r="J19">
-        <v>1.011997927419647</v>
+        <v>1.028258834789022</v>
       </c>
       <c r="K19">
-        <v>1.023229050542585</v>
+        <v>1.035902536996484</v>
       </c>
       <c r="L19">
-        <v>1.020005119864205</v>
+        <v>1.046041921243379</v>
       </c>
       <c r="M19">
-        <v>1.025917812409588</v>
+        <v>1.049317323856353</v>
       </c>
       <c r="N19">
-        <v>1.007939903113019</v>
+        <v>1.013461445500477</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9830314087272406</v>
+        <v>1.021805790551638</v>
       </c>
       <c r="D20">
-        <v>1.008592400428739</v>
+        <v>1.032365460913109</v>
       </c>
       <c r="E20">
-        <v>1.004989867581614</v>
+        <v>1.042454333093217</v>
       </c>
       <c r="F20">
-        <v>1.011031954433989</v>
+        <v>1.045752185711845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03958227110773</v>
+        <v>1.030810307589838</v>
       </c>
       <c r="J20">
-        <v>1.011232483799284</v>
+        <v>1.028099019008151</v>
       </c>
       <c r="K20">
-        <v>1.022485826933298</v>
+        <v>1.035751747902435</v>
       </c>
       <c r="L20">
-        <v>1.01894554000301</v>
+        <v>1.045805479078534</v>
       </c>
       <c r="M20">
-        <v>1.024883554850111</v>
+        <v>1.049092006558705</v>
       </c>
       <c r="N20">
-        <v>1.007682243802637</v>
+        <v>1.013408017947845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9782653120406238</v>
+        <v>1.020882939018886</v>
       </c>
       <c r="D21">
-        <v>1.005141042391362</v>
+        <v>1.031664816541655</v>
       </c>
       <c r="E21">
-        <v>1.000477388008973</v>
+        <v>1.041477983246809</v>
       </c>
       <c r="F21">
-        <v>1.006611088203565</v>
+        <v>1.044812480945673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038604575926042</v>
+        <v>1.030693373759419</v>
       </c>
       <c r="J21">
-        <v>1.008700721735613</v>
+        <v>1.027579475322114</v>
       </c>
       <c r="K21">
-        <v>1.02002566637391</v>
+        <v>1.035261163564881</v>
       </c>
       <c r="L21">
-        <v>1.015449721769261</v>
+        <v>1.04503785308234</v>
       </c>
       <c r="M21">
-        <v>1.021468284691581</v>
+        <v>1.048360128314351</v>
       </c>
       <c r="N21">
-        <v>1.006829895361011</v>
+        <v>1.013234279651092</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9752061987187872</v>
+        <v>1.020303442328607</v>
       </c>
       <c r="D22">
-        <v>1.002930492604119</v>
+        <v>1.031224780334763</v>
       </c>
       <c r="E22">
-        <v>0.9975917887537153</v>
+        <v>1.040865633510362</v>
       </c>
       <c r="F22">
-        <v>1.003782063836906</v>
+        <v>1.044222857761813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037967040265609</v>
+        <v>1.030618564279501</v>
       </c>
       <c r="J22">
-        <v>1.007074550685095</v>
+        <v>1.027252849395963</v>
       </c>
       <c r="K22">
-        <v>1.018444118545287</v>
+        <v>1.034952449248931</v>
       </c>
       <c r="L22">
-        <v>1.013211104213757</v>
+        <v>1.044556045290426</v>
       </c>
       <c r="M22">
-        <v>1.019278967795713</v>
+        <v>1.047900474587982</v>
       </c>
       <c r="N22">
-        <v>1.006282345640014</v>
+        <v>1.013125015126694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976833987797404</v>
+        <v>1.020610574094722</v>
       </c>
       <c r="D23">
-        <v>1.004106284790426</v>
+        <v>1.031458005081429</v>
       </c>
       <c r="E23">
-        <v>0.9991262215601189</v>
+        <v>1.041190106927226</v>
       </c>
       <c r="F23">
-        <v>1.005286600233128</v>
+        <v>1.044535313118903</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038307206202433</v>
+        <v>1.030658344115517</v>
       </c>
       <c r="J23">
-        <v>1.007939951814065</v>
+        <v>1.027425996535982</v>
       </c>
       <c r="K23">
-        <v>1.019285895288766</v>
+        <v>1.035116129152483</v>
       </c>
       <c r="L23">
-        <v>1.014401794711939</v>
+        <v>1.044811381560165</v>
       </c>
       <c r="M23">
-        <v>1.020443649151028</v>
+        <v>1.048144097075809</v>
       </c>
       <c r="N23">
-        <v>1.006573742338986</v>
+        <v>1.013182940850235</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9831102914099569</v>
+        <v>1.021821274644102</v>
       </c>
       <c r="D24">
-        <v>1.008649596249162</v>
+        <v>1.032377215418624</v>
       </c>
       <c r="E24">
-        <v>1.005064727756966</v>
+        <v>1.042470727349514</v>
       </c>
       <c r="F24">
-        <v>1.011105260811337</v>
+        <v>1.045767960287671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039598282664355</v>
+        <v>1.030812246108123</v>
       </c>
       <c r="J24">
-        <v>1.011274364400635</v>
+        <v>1.028107729671444</v>
       </c>
       <c r="K24">
-        <v>1.022526499066303</v>
+        <v>1.035759968027546</v>
       </c>
       <c r="L24">
-        <v>1.019003481073176</v>
+        <v>1.045818362361028</v>
       </c>
       <c r="M24">
-        <v>1.024940122477017</v>
+        <v>1.049104285064917</v>
       </c>
       <c r="N24">
-        <v>1.007696341899273</v>
+        <v>1.013410930177979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9901380443425228</v>
+        <v>1.023229376428582</v>
       </c>
       <c r="D25">
-        <v>1.01375439799828</v>
+        <v>1.033445962987536</v>
       </c>
       <c r="E25">
-        <v>1.011757827911548</v>
+        <v>1.043963367910334</v>
       </c>
       <c r="F25">
-        <v>1.017654599002661</v>
+        <v>1.04720356313398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041000305996977</v>
+        <v>1.030985207611323</v>
       </c>
       <c r="J25">
-        <v>1.015001922593119</v>
+        <v>1.028898938442251</v>
       </c>
       <c r="K25">
-        <v>1.026142881983737</v>
+        <v>1.036505908764478</v>
       </c>
       <c r="L25">
-        <v>1.024176320078437</v>
+        <v>1.046990461131581</v>
       </c>
       <c r="M25">
-        <v>1.029984895297133</v>
+        <v>1.050220680303958</v>
       </c>
       <c r="N25">
-        <v>1.008950882679663</v>
+        <v>1.013675359840425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024354954476961</v>
+        <v>0.9955539374973819</v>
       </c>
       <c r="D2">
-        <v>1.034299980542307</v>
+        <v>1.017700142089164</v>
       </c>
       <c r="E2">
-        <v>1.04515910461195</v>
+        <v>1.016949226931888</v>
       </c>
       <c r="F2">
-        <v>1.048352702062955</v>
+        <v>1.022727322475245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031118593597669</v>
+        <v>1.042044168757215</v>
       </c>
       <c r="J2">
-        <v>1.029530034393715</v>
+        <v>1.017868447642802</v>
       </c>
       <c r="K2">
-        <v>1.037099851446981</v>
+        <v>1.028918272638678</v>
       </c>
       <c r="L2">
-        <v>1.04792812813185</v>
+        <v>1.028177376170464</v>
       </c>
       <c r="M2">
-        <v>1.051112785467323</v>
+        <v>1.033878855700081</v>
       </c>
       <c r="N2">
-        <v>1.013886138705523</v>
+        <v>1.009915208708829</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025173632948521</v>
+        <v>0.9993841013988253</v>
       </c>
       <c r="D3">
-        <v>1.034920959601419</v>
+        <v>1.020496352557824</v>
       </c>
       <c r="E3">
-        <v>1.046030302594381</v>
+        <v>1.020639291090214</v>
       </c>
       <c r="F3">
-        <v>1.049189424180054</v>
+        <v>1.026328780169557</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031212782043853</v>
+        <v>1.042760414627846</v>
       </c>
       <c r="J3">
-        <v>1.029988260586713</v>
+        <v>1.019891570524476</v>
       </c>
       <c r="K3">
-        <v>1.037530491278758</v>
+        <v>1.030873527171195</v>
       </c>
       <c r="L3">
-        <v>1.048610554271379</v>
+        <v>1.031014727265515</v>
       </c>
       <c r="M3">
-        <v>1.05176147184657</v>
+        <v>1.036635507916384</v>
       </c>
       <c r="N3">
-        <v>1.014039099334389</v>
+        <v>1.010595514652822</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025704014984549</v>
+        <v>1.001817494113947</v>
       </c>
       <c r="D4">
-        <v>1.035323173521545</v>
+        <v>1.022275180200582</v>
       </c>
       <c r="E4">
-        <v>1.046595396636453</v>
+        <v>1.0229921153601</v>
       </c>
       <c r="F4">
-        <v>1.049731912699386</v>
+        <v>1.028623106562893</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031272492485597</v>
+        <v>1.04320502589748</v>
       </c>
       <c r="J4">
-        <v>1.030284753492766</v>
+        <v>1.021174822193706</v>
       </c>
       <c r="K4">
-        <v>1.037808851050103</v>
+        <v>1.032111996010402</v>
       </c>
       <c r="L4">
-        <v>1.049052858689809</v>
+        <v>1.03282074471508</v>
       </c>
       <c r="M4">
-        <v>1.052181639708323</v>
+        <v>1.038387926279129</v>
       </c>
       <c r="N4">
-        <v>1.014138033652294</v>
+        <v>1.011026877958223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025927139693643</v>
+        <v>1.002830052798448</v>
       </c>
       <c r="D5">
-        <v>1.035492357895878</v>
+        <v>1.023015879453202</v>
       </c>
       <c r="E5">
-        <v>1.046833288365657</v>
+        <v>1.023973146324487</v>
       </c>
       <c r="F5">
-        <v>1.049960229832595</v>
+        <v>1.029579261252398</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031297298232057</v>
+        <v>1.043387490279321</v>
       </c>
       <c r="J5">
-        <v>1.030409395430429</v>
+        <v>1.021708268624447</v>
       </c>
       <c r="K5">
-        <v>1.03792580197897</v>
+        <v>1.032626396442017</v>
       </c>
       <c r="L5">
-        <v>1.049238976359636</v>
+        <v>1.033573027361124</v>
       </c>
       <c r="M5">
-        <v>1.052358378191698</v>
+        <v>1.039117341848905</v>
       </c>
       <c r="N5">
-        <v>1.014179615256172</v>
+        <v>1.011206157160452</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025964612184827</v>
+        <v>1.002999462967423</v>
       </c>
       <c r="D6">
-        <v>1.035520770133695</v>
+        <v>1.023139833807059</v>
       </c>
       <c r="E6">
-        <v>1.046873250505178</v>
+        <v>1.024137398262545</v>
       </c>
       <c r="F6">
-        <v>1.049998580176574</v>
+        <v>1.029739319563988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031301445818168</v>
+        <v>1.043417867639097</v>
       </c>
       <c r="J6">
-        <v>1.030430323107585</v>
+        <v>1.021797487247856</v>
       </c>
       <c r="K6">
-        <v>1.037945434320626</v>
+        <v>1.032712403970165</v>
       </c>
       <c r="L6">
-        <v>1.049270236425901</v>
+        <v>1.033698936049244</v>
       </c>
       <c r="M6">
-        <v>1.052388059170704</v>
+        <v>1.039239391371562</v>
       </c>
       <c r="N6">
-        <v>1.014186596368068</v>
+        <v>1.011236139206115</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025706995792271</v>
+        <v>1.001831064567434</v>
       </c>
       <c r="D7">
-        <v>1.035325433805836</v>
+        <v>1.0222851051977</v>
       </c>
       <c r="E7">
-        <v>1.046598574078114</v>
+        <v>1.023005255422626</v>
       </c>
       <c r="F7">
-        <v>1.049734962484797</v>
+        <v>1.028635915349209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031272825107171</v>
+        <v>1.043207481401073</v>
       </c>
       <c r="J7">
-        <v>1.030286418980488</v>
+        <v>1.021181973634262</v>
       </c>
       <c r="K7">
-        <v>1.037810414036888</v>
+        <v>1.03211889383398</v>
       </c>
       <c r="L7">
-        <v>1.049055344925945</v>
+        <v>1.032830823868302</v>
       </c>
       <c r="M7">
-        <v>1.052184000906113</v>
+        <v>1.038397701198119</v>
       </c>
       <c r="N7">
-        <v>1.014138589309103</v>
+        <v>1.011029281547944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024631496696591</v>
+        <v>0.9968578749452149</v>
       </c>
       <c r="D8">
-        <v>1.034509759597418</v>
+        <v>1.018651564262372</v>
       </c>
       <c r="E8">
-        <v>1.045453245063989</v>
+        <v>1.018203684599502</v>
       </c>
       <c r="F8">
-        <v>1.048635252768388</v>
+        <v>1.023952072941245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031150680494862</v>
+        <v>1.042290168192868</v>
       </c>
       <c r="J8">
-        <v>1.029684895407124</v>
+        <v>1.018557617855872</v>
       </c>
       <c r="K8">
-        <v>1.03724544803454</v>
+        <v>1.029584678878014</v>
       </c>
       <c r="L8">
-        <v>1.048158605289455</v>
+        <v>1.029142594331165</v>
       </c>
       <c r="M8">
-        <v>1.051331923177349</v>
+        <v>1.034817085375108</v>
       </c>
       <c r="N8">
-        <v>1.013937840767668</v>
+        <v>1.01014698274458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022741323306148</v>
+        <v>0.9877345067691979</v>
       </c>
       <c r="D9">
-        <v>1.033075575313782</v>
+        <v>1.012006520366996</v>
       </c>
       <c r="E9">
-        <v>1.043445613288895</v>
+        <v>1.00946338513395</v>
       </c>
       <c r="F9">
-        <v>1.046705733086719</v>
+        <v>1.015410550755243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030926011328064</v>
+        <v>1.040526459452835</v>
       </c>
       <c r="J9">
-        <v>1.02862491279935</v>
+        <v>1.013727952176348</v>
       </c>
       <c r="K9">
-        <v>1.036247722545937</v>
+        <v>1.024907757962994</v>
       </c>
       <c r="L9">
-        <v>1.046584092297971</v>
+        <v>1.022404768970272</v>
       </c>
       <c r="M9">
-        <v>1.049833778380763</v>
+        <v>1.028258454295614</v>
       </c>
       <c r="N9">
-        <v>1.0135837992977</v>
+        <v>1.008522178506317</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021484664675099</v>
+        <v>0.9813874379535042</v>
       </c>
       <c r="D10">
-        <v>1.032121673549663</v>
+        <v>1.007400935191025</v>
       </c>
       <c r="E10">
-        <v>1.042114425088594</v>
+        <v>1.003431037597459</v>
       </c>
       <c r="F10">
-        <v>1.045425093128876</v>
+        <v>1.009505222601218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030769928774608</v>
+        <v>1.039247287034728</v>
       </c>
       <c r="J10">
-        <v>1.027918318985536</v>
+        <v>1.010359488328035</v>
       </c>
       <c r="K10">
-        <v>1.035581186398157</v>
+        <v>1.02163783693927</v>
       </c>
       <c r="L10">
-        <v>1.045538318851237</v>
+        <v>1.017738618702031</v>
       </c>
       <c r="M10">
-        <v>1.048837351521994</v>
+        <v>1.023704952230032</v>
       </c>
       <c r="N10">
-        <v>1.013347599648114</v>
+        <v>1.007388358887457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020941358537198</v>
+        <v>0.978570835124251</v>
       </c>
       <c r="D11">
-        <v>1.031709173926484</v>
+        <v>1.005362021556221</v>
       </c>
       <c r="E11">
-        <v>1.041539746157683</v>
+        <v>1.000766037040349</v>
       </c>
       <c r="F11">
-        <v>1.044871940721017</v>
+        <v>1.006893994189797</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030700856784136</v>
+        <v>1.03866783431062</v>
       </c>
       <c r="J11">
-        <v>1.027612386529076</v>
+        <v>1.00886308771655</v>
       </c>
       <c r="K11">
-        <v>1.035292257516906</v>
+        <v>1.020183521519269</v>
       </c>
       <c r="L11">
-        <v>1.045086433715589</v>
+        <v>1.015673521469617</v>
       </c>
       <c r="M11">
-        <v>1.048406463140642</v>
+        <v>1.021687060516147</v>
       </c>
       <c r="N11">
-        <v>1.013245287622943</v>
+        <v>1.0068845627297</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020739677633024</v>
+        <v>0.9775138706097094</v>
       </c>
       <c r="D12">
-        <v>1.031556037161253</v>
+        <v>1.004597695822492</v>
       </c>
       <c r="E12">
-        <v>1.041326547388613</v>
+        <v>0.9997678025967797</v>
       </c>
       <c r="F12">
-        <v>1.044666683643327</v>
+        <v>1.005915555182647</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030674977602737</v>
+        <v>1.038448664409036</v>
       </c>
       <c r="J12">
-        <v>1.027498754981441</v>
+        <v>1.008301342090844</v>
       </c>
       <c r="K12">
-        <v>1.035184890635362</v>
+        <v>1.019637338174292</v>
       </c>
       <c r="L12">
-        <v>1.044918726619992</v>
+        <v>1.014899452494781</v>
       </c>
       <c r="M12">
-        <v>1.048246499523178</v>
+        <v>1.020930293308866</v>
       </c>
       <c r="N12">
-        <v>1.013207279439251</v>
+        <v>1.006695424831434</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020782933089061</v>
+        <v>0.9777410879389554</v>
       </c>
       <c r="D13">
-        <v>1.031588881687159</v>
+        <v>1.004761966791169</v>
       </c>
       <c r="E13">
-        <v>1.041372267334056</v>
+        <v>0.9999823107431437</v>
       </c>
       <c r="F13">
-        <v>1.044710702521709</v>
+        <v>1.006125825084669</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03068053884501</v>
+        <v>1.038495856765502</v>
       </c>
       <c r="J13">
-        <v>1.027523129069718</v>
+        <v>1.008422110007001</v>
       </c>
       <c r="K13">
-        <v>1.035207923247472</v>
+        <v>1.01975477079878</v>
       </c>
       <c r="L13">
-        <v>1.044954693855701</v>
+        <v>1.015065814608176</v>
       </c>
       <c r="M13">
-        <v>1.048280808274342</v>
+        <v>1.021092954594152</v>
       </c>
       <c r="N13">
-        <v>1.013215432539788</v>
+        <v>1.00673608757483</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020924684926428</v>
+        <v>0.9784836884249665</v>
       </c>
       <c r="D14">
-        <v>1.031696513869876</v>
+        <v>1.00529898621792</v>
       </c>
       <c r="E14">
-        <v>1.041522117712893</v>
+        <v>1.000683694956094</v>
       </c>
       <c r="F14">
-        <v>1.044854969844663</v>
+        <v>1.006813291993535</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030698722143474</v>
+        <v>1.038649798506578</v>
       </c>
       <c r="J14">
-        <v>1.027602993592565</v>
+        <v>1.00881677571593</v>
       </c>
       <c r="K14">
-        <v>1.035283383463854</v>
+        <v>1.0201384972232</v>
       </c>
       <c r="L14">
-        <v>1.04507256806448</v>
+        <v>1.015609681250399</v>
       </c>
       <c r="M14">
-        <v>1.048393238702928</v>
+        <v>1.021624655187155</v>
       </c>
       <c r="N14">
-        <v>1.013242145952729</v>
+        <v>1.006868969898887</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021012039815695</v>
+        <v>0.9789397889543794</v>
       </c>
       <c r="D15">
-        <v>1.031762840792746</v>
+        <v>1.005628927981377</v>
       </c>
       <c r="E15">
-        <v>1.041614480330575</v>
+        <v>1.001114724826184</v>
       </c>
       <c r="F15">
-        <v>1.044943885374407</v>
+        <v>1.0072357235755</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030709895974776</v>
+        <v>1.038744122688802</v>
       </c>
       <c r="J15">
-        <v>1.027652201513318</v>
+        <v>1.009059151224672</v>
       </c>
       <c r="K15">
-        <v>1.035329870962368</v>
+        <v>1.020374123949852</v>
       </c>
       <c r="L15">
-        <v>1.045145213275991</v>
+        <v>1.015943838760904</v>
       </c>
       <c r="M15">
-        <v>1.048462522448459</v>
+        <v>1.021951286100513</v>
       </c>
       <c r="N15">
-        <v>1.013258604327245</v>
+        <v>1.006950574985236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021520739857637</v>
+        <v>0.9815728864777573</v>
       </c>
       <c r="D16">
-        <v>1.032149061460737</v>
+        <v>1.00753528725579</v>
       </c>
       <c r="E16">
-        <v>1.042152601348597</v>
+        <v>1.003606757357501</v>
       </c>
       <c r="F16">
-        <v>1.045461833138531</v>
+        <v>1.009677348363133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030774481578273</v>
+        <v>1.039285196857759</v>
       </c>
       <c r="J16">
-        <v>1.027938623400367</v>
+        <v>1.010457982920298</v>
       </c>
       <c r="K16">
-        <v>1.035600355152881</v>
+        <v>1.021733527651887</v>
       </c>
       <c r="L16">
-        <v>1.045568328963468</v>
+        <v>1.017874707364325</v>
       </c>
       <c r="M16">
-        <v>1.048865960342645</v>
+        <v>1.023837875214263</v>
       </c>
       <c r="N16">
-        <v>1.013354389041471</v>
+        <v>1.007421517184644</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021840058787985</v>
+        <v>0.9832059384455361</v>
       </c>
       <c r="D17">
-        <v>1.032391475047773</v>
+        <v>1.008718950613274</v>
       </c>
       <c r="E17">
-        <v>1.042490616196693</v>
+        <v>1.005155505167399</v>
       </c>
       <c r="F17">
-        <v>1.045787097168474</v>
+        <v>1.011194152510835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030814596723084</v>
+        <v>1.039617689312483</v>
       </c>
       <c r="J17">
-        <v>1.028118296504954</v>
+        <v>1.011325144512153</v>
       </c>
       <c r="K17">
-        <v>1.035769939568712</v>
+        <v>1.022575812799998</v>
       </c>
       <c r="L17">
-        <v>1.045833991559101</v>
+        <v>1.019073739534864</v>
       </c>
       <c r="M17">
-        <v>1.049119180370513</v>
+        <v>1.025008713789255</v>
       </c>
       <c r="N17">
-        <v>1.013414462950416</v>
+        <v>1.007713435728463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022026392602818</v>
+        <v>0.9841519168903955</v>
       </c>
       <c r="D18">
-        <v>1.032532923357968</v>
+        <v>1.009405071056727</v>
       </c>
       <c r="E18">
-        <v>1.042687941743224</v>
+        <v>1.006053780888516</v>
       </c>
       <c r="F18">
-        <v>1.045976950524786</v>
+        <v>1.012073677088466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030837851668821</v>
+        <v>1.039809166811563</v>
       </c>
       <c r="J18">
-        <v>1.028223099337761</v>
+        <v>1.011827311150824</v>
       </c>
       <c r="K18">
-        <v>1.035868824867513</v>
+        <v>1.023063411772059</v>
       </c>
       <c r="L18">
-        <v>1.045989038800472</v>
+        <v>1.019768830016183</v>
       </c>
       <c r="M18">
-        <v>1.049266934308616</v>
+        <v>1.02568720750796</v>
       </c>
       <c r="N18">
-        <v>1.013449499538458</v>
+        <v>1.007882472886589</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022089941218832</v>
+        <v>0.9844733741069317</v>
       </c>
       <c r="D19">
-        <v>1.032581162434356</v>
+        <v>1.009638300692413</v>
       </c>
       <c r="E19">
-        <v>1.042755252954934</v>
+        <v>1.006359218751505</v>
       </c>
       <c r="F19">
-        <v>1.046041707999451</v>
+        <v>1.01237270092453</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030845756637233</v>
+        <v>1.039874041267801</v>
       </c>
       <c r="J19">
-        <v>1.028258834789022</v>
+        <v>1.011997927419648</v>
       </c>
       <c r="K19">
-        <v>1.035902536996484</v>
+        <v>1.023229050542585</v>
       </c>
       <c r="L19">
-        <v>1.046041921243379</v>
+        <v>1.020005119864206</v>
       </c>
       <c r="M19">
-        <v>1.049317323856353</v>
+        <v>1.025917812409589</v>
       </c>
       <c r="N19">
-        <v>1.013461445500477</v>
+        <v>1.007939903113019</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021805790551638</v>
+        <v>0.983031408727241</v>
       </c>
       <c r="D20">
-        <v>1.032365460913109</v>
+        <v>1.00859240042874</v>
       </c>
       <c r="E20">
-        <v>1.042454333093217</v>
+        <v>1.004989867581614</v>
       </c>
       <c r="F20">
-        <v>1.045752185711845</v>
+        <v>1.011031954433989</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030810307589838</v>
+        <v>1.03958227110773</v>
       </c>
       <c r="J20">
-        <v>1.028099019008151</v>
+        <v>1.011232483799285</v>
       </c>
       <c r="K20">
-        <v>1.035751747902435</v>
+        <v>1.022485826933298</v>
       </c>
       <c r="L20">
-        <v>1.045805479078534</v>
+        <v>1.018945540003011</v>
       </c>
       <c r="M20">
-        <v>1.049092006558705</v>
+        <v>1.024883554850111</v>
       </c>
       <c r="N20">
-        <v>1.013408017947845</v>
+        <v>1.007682243802637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020882939018886</v>
+        <v>0.9782653120406233</v>
       </c>
       <c r="D21">
-        <v>1.031664816541655</v>
+        <v>1.005141042391362</v>
       </c>
       <c r="E21">
-        <v>1.041477983246809</v>
+        <v>1.000477388008974</v>
       </c>
       <c r="F21">
-        <v>1.044812480945673</v>
+        <v>1.006611088203565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030693373759419</v>
+        <v>1.038604575926042</v>
       </c>
       <c r="J21">
-        <v>1.027579475322114</v>
+        <v>1.008700721735613</v>
       </c>
       <c r="K21">
-        <v>1.035261163564881</v>
+        <v>1.02002566637391</v>
       </c>
       <c r="L21">
-        <v>1.04503785308234</v>
+        <v>1.015449721769262</v>
       </c>
       <c r="M21">
-        <v>1.048360128314351</v>
+        <v>1.021468284691581</v>
       </c>
       <c r="N21">
-        <v>1.013234279651092</v>
+        <v>1.006829895361011</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020303442328607</v>
+        <v>0.9752061987187876</v>
       </c>
       <c r="D22">
-        <v>1.031224780334763</v>
+        <v>1.002930492604119</v>
       </c>
       <c r="E22">
-        <v>1.040865633510362</v>
+        <v>0.9975917887537153</v>
       </c>
       <c r="F22">
-        <v>1.044222857761813</v>
+        <v>1.003782063836906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030618564279501</v>
+        <v>1.037967040265609</v>
       </c>
       <c r="J22">
-        <v>1.027252849395963</v>
+        <v>1.007074550685095</v>
       </c>
       <c r="K22">
-        <v>1.034952449248931</v>
+        <v>1.018444118545288</v>
       </c>
       <c r="L22">
-        <v>1.044556045290426</v>
+        <v>1.013211104213757</v>
       </c>
       <c r="M22">
-        <v>1.047900474587982</v>
+        <v>1.019278967795714</v>
       </c>
       <c r="N22">
-        <v>1.013125015126694</v>
+        <v>1.006282345640014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020610574094722</v>
+        <v>0.9768339877974036</v>
       </c>
       <c r="D23">
-        <v>1.031458005081429</v>
+        <v>1.004106284790426</v>
       </c>
       <c r="E23">
-        <v>1.041190106927226</v>
+        <v>0.9991262215601192</v>
       </c>
       <c r="F23">
-        <v>1.044535313118903</v>
+        <v>1.005286600233129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030658344115517</v>
+        <v>1.038307206202433</v>
       </c>
       <c r="J23">
-        <v>1.027425996535982</v>
+        <v>1.007939951814065</v>
       </c>
       <c r="K23">
-        <v>1.035116129152483</v>
+        <v>1.019285895288766</v>
       </c>
       <c r="L23">
-        <v>1.044811381560165</v>
+        <v>1.014401794711939</v>
       </c>
       <c r="M23">
-        <v>1.048144097075809</v>
+        <v>1.020443649151029</v>
       </c>
       <c r="N23">
-        <v>1.013182940850235</v>
+        <v>1.006573742338986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021821274644102</v>
+        <v>0.983110291409957</v>
       </c>
       <c r="D24">
-        <v>1.032377215418624</v>
+        <v>1.008649596249162</v>
       </c>
       <c r="E24">
-        <v>1.042470727349514</v>
+        <v>1.005064727756966</v>
       </c>
       <c r="F24">
-        <v>1.045767960287671</v>
+        <v>1.011105260811338</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030812246108123</v>
+        <v>1.039598282664355</v>
       </c>
       <c r="J24">
-        <v>1.028107729671444</v>
+        <v>1.011274364400635</v>
       </c>
       <c r="K24">
-        <v>1.035759968027546</v>
+        <v>1.022526499066303</v>
       </c>
       <c r="L24">
-        <v>1.045818362361028</v>
+        <v>1.019003481073176</v>
       </c>
       <c r="M24">
-        <v>1.049104285064917</v>
+        <v>1.024940122477017</v>
       </c>
       <c r="N24">
-        <v>1.013410930177979</v>
+        <v>1.007696341899273</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023229376428582</v>
+        <v>0.9901380443425229</v>
       </c>
       <c r="D25">
-        <v>1.033445962987536</v>
+        <v>1.01375439799828</v>
       </c>
       <c r="E25">
-        <v>1.043963367910334</v>
+        <v>1.011757827911548</v>
       </c>
       <c r="F25">
-        <v>1.04720356313398</v>
+        <v>1.017654599002661</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030985207611323</v>
+        <v>1.041000305996978</v>
       </c>
       <c r="J25">
-        <v>1.028898938442251</v>
+        <v>1.015001922593119</v>
       </c>
       <c r="K25">
-        <v>1.036505908764478</v>
+        <v>1.026142881983738</v>
       </c>
       <c r="L25">
-        <v>1.046990461131581</v>
+        <v>1.024176320078437</v>
       </c>
       <c r="M25">
-        <v>1.050220680303958</v>
+        <v>1.029984895297134</v>
       </c>
       <c r="N25">
-        <v>1.013675359840425</v>
+        <v>1.008950882679663</v>
       </c>
     </row>
   </sheetData>
